--- a/public/excel/Difusi.xlsx
+++ b/public/excel/Difusi.xlsx
@@ -1,51 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lavienuie/Skripsi/E-LKPD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5841630276F47A08/SKRIPSI SAKRAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F373E985-4CA4-BB48-9055-8E8E09317032}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{A84AE4B5-7978-4033-B4A0-81CF9E320010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2E44D68-2E81-4B19-B34D-756D44684846}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{A502C8DC-54A4-6D40-B966-ACE1D92D8AA7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EE7C0670-8B94-44F3-AC2C-DDD6BD8388D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Difusi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>No</t>
+    <t>y</t>
   </si>
   <si>
-    <t>Jenis Wujud</t>
+    <t>Pewarna cair (Tinta)</t>
   </si>
   <si>
-    <t>Pengulangan</t>
-  </si>
-  <si>
-    <t>Lama Perubahan Warna</t>
-  </si>
-  <si>
-    <t>Rata-rata waktu perubahan warna</t>
-  </si>
-  <si>
-    <t>Padat</t>
-  </si>
-  <si>
-    <t>Cair</t>
+    <t>Pewarna Bubuk (Pewarna Tekstil)</t>
   </si>
 </sst>
 </file>
@@ -54,15 +51,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -76,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -84,33 +80,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,18 +107,48 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Hubungan</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> jenis wujud terhapad waktu perubahan warna</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -156,24 +162,28 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -184,258 +194,70 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jenis Wujud</c:v>
+                  <c:v>y</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6"/>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="51000">
+                  <a:schemeClr val="accent6">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="15000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Difusi!$C$4:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Difusi!$B$4:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Pewarna cair (Tinta)</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9629-5941-8975-1806D7143204}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Difusi!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pengulangan</c:v>
+                <c:pt idx="1">
+                  <c:v>Pewarna Bubuk (Pewarna Tekstil)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Difusi!$D$4:$D$9</c:f>
+              <c:f>Difusi!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9629-5941-8975-1806D7143204}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Difusi!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Lama Perubahan Warna</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Difusi!$E$4:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9629-5941-8975-1806D7143204}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Difusi!$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rata-rata waktu perubahan warna</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Difusi!$F$4:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9629-5941-8975-1806D7143204}"/>
+              <c16:uniqueId val="{00000000-F77F-4F0B-8AF4-8AF3421238E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -447,30 +269,74 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1482459376"/>
-        <c:axId val="1481764608"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1482459376"/>
+        <c:gapWidth val="355"/>
+        <c:overlap val="-70"/>
+        <c:axId val="12422527"/>
+        <c:axId val="12419615"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="12422527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Jenis wujud</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -479,8 +345,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -494,22 +360,28 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1481764608"/>
+        <c:crossAx val="12419615"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1481764608"/>
+        <c:axId val="12419615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,31 +390,105 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Rata-rata</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ID" baseline="0"/>
+                  <a:t> waktu perubahan</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID" baseline="0"/>
+                  <a:t>warna (detik)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -553,19 +499,22 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1482459376"/>
+        <c:crossAx val="12422527"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -575,34 +524,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -636,7 +557,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -648,69 +569,41 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="210">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -723,7 +616,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -739,14 +632,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -755,20 +651,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="bg1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -777,35 +668,91 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -817,22 +764,51 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -856,18 +832,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -877,7 +854,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -886,14 +863,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -902,17 +878,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -921,7 +896,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -940,21 +915,142 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -965,56 +1061,21 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1024,68 +1085,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:seriesLine>
   <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1094,14 +1105,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1110,7 +1120,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1119,20 +1132,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1141,19 +1153,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1161,14 +1165,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1177,23 +1175,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>344556</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>43621</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14968</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>776908</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>158105</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>319768</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Bagan 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9006D5DC-BDDD-A644-9ACF-7D8341FB8121}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B80946-5B35-4341-BAC3-B9F21BBB5A32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1215,7 +1213,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1510,129 +1508,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DFF628-1CAE-6744-92A2-2BCC446BE5F7}">
-  <dimension ref="B3:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AAC6F1-E54A-4028-B69B-5C9038B32C08}">
+  <dimension ref="B3:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="40.1640625" customWidth="1"/>
-    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2">
-        <f>AVERAGE(E4:E6)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <f>AVERAGE(E7:E9)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2"/>
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F7:F9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
